--- a/scrum/burndown_template.xlsx
+++ b/scrum/burndown_template.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msudenver-my.sharepoint.com/personal/tmota_msudenver_edu/Documents/Teaching/Courses/__24SCS3250_SE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7397B228-E7AA-634C-96A5-F3624B942EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{7397B228-E7AA-634C-96A5-F3624B942EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD2388D-B87A-4E1C-9B2A-667F46492534}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15020" xr2:uid="{7A4C5A10-B1D5-9946-8D6C-7E3C0798020F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$G$2</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Start</t>
+  </si>
   <si>
     <t>Sprint 1</t>
   </si>
@@ -63,32 +50,23 @@
     <t>Sprint 3</t>
   </si>
   <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Sprint 5</t>
-  </si>
-  <si>
     <t>Planned</t>
   </si>
   <si>
     <t>Actual</t>
   </si>
   <si>
-    <t>Remaining</t>
+    <t>Ideal</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Ideal</t>
+    <t>Remaining</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,7 +138,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,9 +266,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$G$1</c:f>
+              <c:f>Sheet1!$C$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -299,36 +277,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$G$2</c:f>
+              <c:f>Sheet1!$C$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,9 +323,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$G$1</c:f>
+              <c:f>Sheet1!$C$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -368,36 +334,24 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$G$3</c:f>
+              <c:f>Sheet1!$C$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,23 +397,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Sheet1!$C$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -492,23 +440,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$G$5</c:f>
+              <c:f>Sheet1!$C$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1287,13 +1229,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>29936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>178708</xdr:rowOff>
@@ -1621,131 +1563,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ADD8F6-D520-684C-80D6-92D618A9A1CC}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3">
-        <v>80</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-      <c r="G2" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
-        <f>B5-C2</f>
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:G4" si="0">C5-D2</f>
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4">
         <f>B5-C3</f>
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:G5" si="1">C5-D3</f>
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/scrum/burndown_template.xlsx
+++ b/scrum/burndown_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msudenver-my.sharepoint.com/personal/tmota_msudenver_edu/Documents/Teaching/Courses/__24SCS3250_SE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{7397B228-E7AA-634C-96A5-F3624B942EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD2388D-B87A-4E1C-9B2A-667F46492534}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{7397B228-E7AA-634C-96A5-F3624B942EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9940FA87-491D-45DF-9226-ACCD54CD1A0D}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15020" xr2:uid="{7A4C5A10-B1D5-9946-8D6C-7E3C0798020F}"/>
   </bookViews>
@@ -294,7 +294,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,7 +351,7 @@
                   <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,7 +445,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35</c:v>
@@ -1601,7 +1601,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1616,7 +1616,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1639,11 +1639,11 @@
         <v>7</v>
       </c>
       <c r="B5" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4">
         <f>B5-C3</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4">
         <v>35</v>
